--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H2">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I2">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J2">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N2">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O2">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P2">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q2">
-        <v>79.41419747067998</v>
+        <v>89.92177054194698</v>
       </c>
       <c r="R2">
-        <v>79.41419747067998</v>
+        <v>359.6870821677879</v>
       </c>
       <c r="S2">
-        <v>0.01999390770862353</v>
+        <v>0.02052845192735961</v>
       </c>
       <c r="T2">
-        <v>0.01999390770862353</v>
+        <v>0.01103477938544723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H3">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I3">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J3">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N3">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P3">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q3">
-        <v>19.25701068776806</v>
+        <v>22.89467213884634</v>
       </c>
       <c r="R3">
-        <v>19.25701068776806</v>
+        <v>137.368032833078</v>
       </c>
       <c r="S3">
-        <v>0.004848287922035142</v>
+        <v>0.005226678406823884</v>
       </c>
       <c r="T3">
-        <v>0.004848287922035142</v>
+        <v>0.004214290732350461</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H4">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I4">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J4">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N4">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O4">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P4">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q4">
-        <v>56.86105166257254</v>
+        <v>68.7414332373415</v>
       </c>
       <c r="R4">
-        <v>56.86105166257254</v>
+        <v>412.448599424049</v>
       </c>
       <c r="S4">
-        <v>0.01431576034721611</v>
+        <v>0.01569314304117583</v>
       </c>
       <c r="T4">
-        <v>0.01431576034721611</v>
+        <v>0.01265344108287432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H5">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I5">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J5">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N5">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O5">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P5">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q5">
-        <v>52.51375587968269</v>
+        <v>59.5277661510205</v>
       </c>
       <c r="R5">
-        <v>52.51375587968269</v>
+        <v>357.166596906123</v>
       </c>
       <c r="S5">
-        <v>0.01322125289850356</v>
+        <v>0.01358973336945451</v>
       </c>
       <c r="T5">
-        <v>0.01322125289850356</v>
+        <v>0.01095745384281412</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H6">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I6">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J6">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N6">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O6">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P6">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q6">
-        <v>59.48978697188106</v>
+        <v>69.53716352866367</v>
       </c>
       <c r="R6">
-        <v>59.48978697188106</v>
+        <v>417.222981171982</v>
       </c>
       <c r="S6">
-        <v>0.01497759025721575</v>
+        <v>0.01587480217593375</v>
       </c>
       <c r="T6">
-        <v>0.01497759025721575</v>
+        <v>0.01279991353602116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H7">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I7">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J7">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N7">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O7">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P7">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q7">
-        <v>14.28075944278432</v>
+        <v>16.14876837329475</v>
       </c>
       <c r="R7">
-        <v>14.28075944278432</v>
+        <v>64.595073493179</v>
       </c>
       <c r="S7">
-        <v>0.003595429978543845</v>
+        <v>0.003686640212256531</v>
       </c>
       <c r="T7">
-        <v>0.003595429978543845</v>
+        <v>0.001981701375228914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H8">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I8">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J8">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N8">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O8">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P8">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q8">
-        <v>825.8163218001162</v>
+        <v>889.4392056335199</v>
       </c>
       <c r="R8">
-        <v>825.8163218001162</v>
+        <v>5336.635233801119</v>
       </c>
       <c r="S8">
-        <v>0.207913645774013</v>
+        <v>0.2030521626199431</v>
       </c>
       <c r="T8">
-        <v>0.207913645774013</v>
+        <v>0.1637217330983531</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H9">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I9">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J9">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N9">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P9">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q9">
-        <v>200.2507642403551</v>
+        <v>226.4570512534133</v>
       </c>
       <c r="R9">
-        <v>200.2507642403551</v>
+        <v>2038.11346128072</v>
       </c>
       <c r="S9">
-        <v>0.05041661851813343</v>
+        <v>0.05169841143306574</v>
       </c>
       <c r="T9">
-        <v>0.05041661851813343</v>
+        <v>0.06252693945025174</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H10">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I10">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J10">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N10">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O10">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P10">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q10">
-        <v>591.2895430947175</v>
+        <v>679.93907820364</v>
       </c>
       <c r="R10">
-        <v>591.2895430947175</v>
+        <v>6119.451703832759</v>
       </c>
       <c r="S10">
-        <v>0.1488674434829459</v>
+        <v>0.1552248871025667</v>
       </c>
       <c r="T10">
-        <v>0.1488674434829459</v>
+        <v>0.1877376276754737</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H11">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I11">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J11">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N11">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O11">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P11">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q11">
-        <v>546.0826666476097</v>
+        <v>588.80434314628</v>
       </c>
       <c r="R11">
-        <v>546.0826666476097</v>
+        <v>5299.23908831652</v>
       </c>
       <c r="S11">
-        <v>0.1374858247766393</v>
+        <v>0.1344195246607212</v>
       </c>
       <c r="T11">
-        <v>0.1374858247766393</v>
+        <v>0.1625744630523964</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H12">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I12">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J12">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N12">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O12">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P12">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q12">
-        <v>618.6253670816152</v>
+        <v>687.8098498081866</v>
       </c>
       <c r="R12">
-        <v>618.6253670816152</v>
+        <v>6190.28864827368</v>
       </c>
       <c r="S12">
-        <v>0.1557497133961437</v>
+        <v>0.1570217240147112</v>
       </c>
       <c r="T12">
-        <v>0.1557497133961437</v>
+        <v>0.1899108223577339</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H13">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I13">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J13">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N13">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O13">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P13">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q13">
-        <v>148.5034743303493</v>
+        <v>159.73159366566</v>
       </c>
       <c r="R13">
-        <v>148.5034743303493</v>
+        <v>958.3895619939601</v>
       </c>
       <c r="S13">
-        <v>0.03738833678029896</v>
+        <v>0.03646550020182734</v>
       </c>
       <c r="T13">
-        <v>0.03738833678029896</v>
+        <v>0.02940227188082726</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H14">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I14">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J14">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N14">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O14">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P14">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q14">
-        <v>48.18346163179666</v>
+        <v>52.460776589048</v>
       </c>
       <c r="R14">
-        <v>48.18346163179666</v>
+        <v>314.7646595342879</v>
       </c>
       <c r="S14">
-        <v>0.0121310258824164</v>
+        <v>0.01197639374524827</v>
       </c>
       <c r="T14">
-        <v>0.0121310258824164</v>
+        <v>0.009656611951040305</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H15">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I15">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J15">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N15">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P15">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q15">
-        <v>11.68392384698899</v>
+        <v>13.35685755425867</v>
       </c>
       <c r="R15">
-        <v>11.68392384698899</v>
+        <v>120.211717988328</v>
       </c>
       <c r="S15">
-        <v>0.002941631377154345</v>
+        <v>0.003049268342367452</v>
       </c>
       <c r="T15">
-        <v>0.002941631377154345</v>
+        <v>0.003687955040120133</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H16">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I16">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J16">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N16">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O16">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P16">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q16">
-        <v>34.49965356810037</v>
+        <v>40.104069901436</v>
       </c>
       <c r="R16">
-        <v>34.49965356810037</v>
+        <v>360.936629112924</v>
       </c>
       <c r="S16">
-        <v>0.008685888813203127</v>
+        <v>0.009155452190290833</v>
       </c>
       <c r="T16">
-        <v>0.008685888813203127</v>
+        <v>0.01107311402562456</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H17">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I17">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J17">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N17">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O17">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P17">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q17">
-        <v>31.86199221498677</v>
+        <v>34.728773933972</v>
       </c>
       <c r="R17">
-        <v>31.86199221498677</v>
+        <v>312.558965405748</v>
       </c>
       <c r="S17">
-        <v>0.008021811616172618</v>
+        <v>0.00792831326499643</v>
       </c>
       <c r="T17">
-        <v>0.008021811616172618</v>
+        <v>0.009588943832537064</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H18">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I18">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J18">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N18">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O18">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P18">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q18">
-        <v>36.09460221645736</v>
+        <v>40.56830263158133</v>
       </c>
       <c r="R18">
-        <v>36.09460221645736</v>
+        <v>365.114723684232</v>
       </c>
       <c r="S18">
-        <v>0.009087444921442049</v>
+        <v>0.009261432969210769</v>
       </c>
       <c r="T18">
-        <v>0.009087444921442049</v>
+        <v>0.01120129308495595</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H19">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I19">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J19">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N19">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O19">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P19">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q19">
-        <v>8.664652500434368</v>
+        <v>9.421266115134001</v>
       </c>
       <c r="R19">
-        <v>8.664652500434368</v>
+        <v>56.527596690804</v>
       </c>
       <c r="S19">
-        <v>0.002181477216148156</v>
+        <v>0.002150802940976019</v>
       </c>
       <c r="T19">
-        <v>0.002181477216148156</v>
+        <v>0.001734200613803476</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H20">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I20">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J20">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N20">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O20">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P20">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q20">
-        <v>165.8489156185039</v>
+        <v>173.57281230291</v>
       </c>
       <c r="R20">
-        <v>165.8489156185039</v>
+        <v>694.29124921164</v>
       </c>
       <c r="S20">
-        <v>0.04175535380403393</v>
+        <v>0.03962534447200122</v>
       </c>
       <c r="T20">
-        <v>0.04175535380403393</v>
+        <v>0.02130004424435549</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H21">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I21">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J21">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N21">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P21">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q21">
-        <v>40.21641522977574</v>
+        <v>44.19277563089</v>
       </c>
       <c r="R21">
-        <v>40.21641522977574</v>
+        <v>265.15665378534</v>
       </c>
       <c r="S21">
-        <v>0.01012518315472102</v>
+        <v>0.01008887241218318</v>
       </c>
       <c r="T21">
-        <v>0.01012518315472102</v>
+        <v>0.008134696301769702</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H22">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I22">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J22">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N22">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O22">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P22">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q22">
-        <v>118.7488391184348</v>
+        <v>132.689156550495</v>
       </c>
       <c r="R22">
-        <v>118.7488391184348</v>
+        <v>796.13493930297</v>
       </c>
       <c r="S22">
-        <v>0.02989708900246396</v>
+        <v>0.03029191879910856</v>
       </c>
       <c r="T22">
-        <v>0.02989708900246396</v>
+        <v>0.02442448965169275</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H23">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I23">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J23">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N23">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O23">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P23">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q23">
-        <v>109.6699298751427</v>
+        <v>114.904340947365</v>
       </c>
       <c r="R23">
-        <v>109.6699298751427</v>
+        <v>689.4260456841899</v>
       </c>
       <c r="S23">
-        <v>0.02761131543442697</v>
+        <v>0.02623178152706164</v>
       </c>
       <c r="T23">
-        <v>0.02761131543442697</v>
+        <v>0.02115078548513859</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H24">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I24">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J24">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N24">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O24">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P24">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q24">
-        <v>124.2387000549235</v>
+        <v>134.22512657941</v>
       </c>
       <c r="R24">
-        <v>124.2387000549235</v>
+        <v>805.35075947646</v>
       </c>
       <c r="S24">
-        <v>0.03127925713351961</v>
+        <v>0.03064256899994883</v>
       </c>
       <c r="T24">
-        <v>0.03127925713351961</v>
+        <v>0.02470722024590124</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H25">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I25">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J25">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N25">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O25">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P25">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q25">
-        <v>29.82399297894975</v>
+        <v>31.1713962579675</v>
       </c>
       <c r="R25">
-        <v>29.82399297894975</v>
+        <v>124.68558503187</v>
       </c>
       <c r="S25">
-        <v>0.00750870980398578</v>
+        <v>0.007116191170767266</v>
       </c>
       <c r="T25">
-        <v>0.00750870980398578</v>
+        <v>0.003825208053288618</v>
       </c>
     </row>
   </sheetData>
